--- a/Data_Vins.xlsx
+++ b/Data_Vins.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fcafe\Documents\GitHub\Projet-stats\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olhagaray\Documents\GitHub\Projet-stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="127">
   <si>
     <t>01 AIN</t>
   </si>
@@ -402,12 +402,15 @@
   </si>
   <si>
     <t>CODE_DEPT</t>
+  </si>
+  <si>
+    <t>Cluster</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -798,15 +801,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z80"/>
+  <dimension ref="A1:AA80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="AA2" sqref="AA2:AA80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>101</v>
       </c>
@@ -882,8 +885,11 @@
       <c r="Z1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -962,8 +968,12 @@
       <c r="Z2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA2" t="str">
+        <f>IF(Y2=1,"a",IF(Y2=2,"b",IF(Y2=3,"c",IF(Y2=4,"d","e"))))</f>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1042,8 +1052,12 @@
       <c r="Z3" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA3" t="str">
+        <f t="shared" ref="AA3:AA66" si="0">IF(Y3=1,"a",IF(Y3=2,"b",IF(Y3=3,"c",IF(Y3=4,"d","e"))))</f>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1122,8 +1136,12 @@
       <c r="Z4" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA4" t="str">
+        <f t="shared" si="0"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1202,8 +1220,12 @@
       <c r="Z5" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA5" t="str">
+        <f t="shared" si="0"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1282,8 +1304,12 @@
       <c r="Z6" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA6" t="str">
+        <f t="shared" si="0"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1362,8 +1388,12 @@
       <c r="Z7" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA7" t="str">
+        <f t="shared" si="0"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1442,8 +1472,12 @@
       <c r="Z8" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA8" t="str">
+        <f t="shared" si="0"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1522,8 +1556,12 @@
       <c r="Z9" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA9" t="str">
+        <f t="shared" si="0"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1602,8 +1640,12 @@
       <c r="Z10" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA10" t="str">
+        <f t="shared" si="0"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1682,8 +1724,12 @@
       <c r="Z11" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA11" t="str">
+        <f t="shared" si="0"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1762,8 +1808,12 @@
       <c r="Z12" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA12" t="str">
+        <f t="shared" si="0"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1842,8 +1892,12 @@
       <c r="Z13" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA13" t="str">
+        <f t="shared" si="0"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1922,8 +1976,12 @@
       <c r="Z14" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA14" t="str">
+        <f t="shared" si="0"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -2002,8 +2060,12 @@
       <c r="Z15" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA15" t="str">
+        <f t="shared" si="0"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -2082,8 +2144,12 @@
       <c r="Z16" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA16" t="str">
+        <f t="shared" si="0"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -2162,8 +2228,12 @@
       <c r="Z17" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA17" t="str">
+        <f t="shared" si="0"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -2242,8 +2312,12 @@
       <c r="Z18" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA18" t="str">
+        <f t="shared" si="0"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -2322,8 +2396,12 @@
       <c r="Z19" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA19" t="str">
+        <f t="shared" si="0"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -2402,8 +2480,12 @@
       <c r="Z20" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA20" t="str">
+        <f t="shared" si="0"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -2482,8 +2564,12 @@
       <c r="Z21" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA21" t="str">
+        <f t="shared" si="0"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -2562,8 +2648,12 @@
       <c r="Z22" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="23" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA22" t="str">
+        <f t="shared" si="0"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -2642,8 +2732,12 @@
       <c r="Z23" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="24" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA23" t="str">
+        <f t="shared" si="0"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -2722,8 +2816,12 @@
       <c r="Z24" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="25" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA24" t="str">
+        <f t="shared" si="0"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -2802,8 +2900,12 @@
       <c r="Z25" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="26" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA25" t="str">
+        <f t="shared" si="0"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -2882,8 +2984,12 @@
       <c r="Z26" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="27" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA26" t="str">
+        <f t="shared" si="0"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -2962,8 +3068,12 @@
       <c r="Z27" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="28" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA27" t="str">
+        <f t="shared" si="0"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -3042,8 +3152,12 @@
       <c r="Z28" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="29" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA28" t="str">
+        <f t="shared" si="0"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -3122,8 +3236,12 @@
       <c r="Z29" s="1">
         <v>31</v>
       </c>
-    </row>
-    <row r="30" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA29" t="str">
+        <f t="shared" si="0"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -3202,8 +3320,12 @@
       <c r="Z30" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="31" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA30" t="str">
+        <f t="shared" si="0"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -3282,8 +3404,12 @@
       <c r="Z31" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="32" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA31" t="str">
+        <f t="shared" si="0"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -3362,8 +3488,12 @@
       <c r="Z32" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="33" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA32" t="str">
+        <f t="shared" si="0"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -3442,8 +3572,12 @@
       <c r="Z33" s="1">
         <v>36</v>
       </c>
-    </row>
-    <row r="34" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA33" t="str">
+        <f t="shared" si="0"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -3522,8 +3656,12 @@
       <c r="Z34" s="1">
         <v>37</v>
       </c>
-    </row>
-    <row r="35" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA34" t="str">
+        <f t="shared" si="0"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -3602,8 +3740,12 @@
       <c r="Z35" s="1">
         <v>38</v>
       </c>
-    </row>
-    <row r="36" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA35" t="str">
+        <f t="shared" si="0"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -3682,8 +3824,12 @@
       <c r="Z36" s="1">
         <v>39</v>
       </c>
-    </row>
-    <row r="37" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA36" t="str">
+        <f t="shared" si="0"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -3762,8 +3908,12 @@
       <c r="Z37" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="38" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA37" t="str">
+        <f t="shared" si="0"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -3842,8 +3992,12 @@
       <c r="Z38" s="1">
         <v>41</v>
       </c>
-    </row>
-    <row r="39" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA38" t="str">
+        <f t="shared" si="0"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -3922,8 +4076,12 @@
       <c r="Z39" s="1">
         <v>42</v>
       </c>
-    </row>
-    <row r="40" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA39" t="str">
+        <f t="shared" si="0"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -4002,8 +4160,12 @@
       <c r="Z40" s="1">
         <v>43</v>
       </c>
-    </row>
-    <row r="41" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA40" t="str">
+        <f t="shared" si="0"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -4082,8 +4244,12 @@
       <c r="Z41" s="1">
         <v>44</v>
       </c>
-    </row>
-    <row r="42" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA41" t="str">
+        <f t="shared" si="0"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -4162,8 +4328,12 @@
       <c r="Z42" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="43" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA42" t="str">
+        <f t="shared" si="0"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -4242,8 +4412,12 @@
       <c r="Z43" s="1">
         <v>46</v>
       </c>
-    </row>
-    <row r="44" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA43" t="str">
+        <f t="shared" si="0"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -4322,8 +4496,12 @@
       <c r="Z44" s="1">
         <v>47</v>
       </c>
-    </row>
-    <row r="45" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA44" t="str">
+        <f t="shared" si="0"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -4402,8 +4580,12 @@
       <c r="Z45" s="1">
         <v>48</v>
       </c>
-    </row>
-    <row r="46" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA45" t="str">
+        <f t="shared" si="0"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -4482,8 +4664,12 @@
       <c r="Z46" s="1">
         <v>49</v>
       </c>
-    </row>
-    <row r="47" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA46" t="str">
+        <f t="shared" si="0"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -4562,8 +4748,12 @@
       <c r="Z47" s="1">
         <v>51</v>
       </c>
-    </row>
-    <row r="48" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA47" t="str">
+        <f t="shared" si="0"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -4642,8 +4832,12 @@
       <c r="Z48" s="1">
         <v>52</v>
       </c>
-    </row>
-    <row r="49" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA48" t="str">
+        <f t="shared" si="0"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -4722,8 +4916,12 @@
       <c r="Z49" s="1">
         <v>53</v>
       </c>
-    </row>
-    <row r="50" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA49" t="str">
+        <f t="shared" si="0"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -4802,8 +5000,12 @@
       <c r="Z50" s="1">
         <v>54</v>
       </c>
-    </row>
-    <row r="51" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA50" t="str">
+        <f t="shared" si="0"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -4882,8 +5084,12 @@
       <c r="Z51" s="1">
         <v>55</v>
       </c>
-    </row>
-    <row r="52" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA51" t="str">
+        <f t="shared" si="0"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -4962,8 +5168,12 @@
       <c r="Z52" s="1">
         <v>57</v>
       </c>
-    </row>
-    <row r="53" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA52" t="str">
+        <f t="shared" si="0"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -5042,8 +5252,12 @@
       <c r="Z53" s="1">
         <v>58</v>
       </c>
-    </row>
-    <row r="54" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA53" t="str">
+        <f t="shared" si="0"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -5122,8 +5336,12 @@
       <c r="Z54" s="1">
         <v>59</v>
       </c>
-    </row>
-    <row r="55" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA54" t="str">
+        <f t="shared" si="0"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -5202,8 +5420,12 @@
       <c r="Z55" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="56" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA55" t="str">
+        <f t="shared" si="0"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -5282,8 +5504,12 @@
       <c r="Z56" s="1">
         <v>62</v>
       </c>
-    </row>
-    <row r="57" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA56" t="str">
+        <f t="shared" si="0"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -5362,8 +5588,12 @@
       <c r="Z57" s="1">
         <v>63</v>
       </c>
-    </row>
-    <row r="58" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA57" t="str">
+        <f t="shared" si="0"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -5442,8 +5672,12 @@
       <c r="Z58" s="1">
         <v>64</v>
       </c>
-    </row>
-    <row r="59" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA58" t="str">
+        <f t="shared" si="0"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -5522,8 +5756,12 @@
       <c r="Z59" s="1">
         <v>65</v>
       </c>
-    </row>
-    <row r="60" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA59" t="str">
+        <f t="shared" si="0"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -5602,8 +5840,12 @@
       <c r="Z60" s="1">
         <v>66</v>
       </c>
-    </row>
-    <row r="61" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA60" t="str">
+        <f t="shared" si="0"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -5682,8 +5924,12 @@
       <c r="Z61" s="1">
         <v>67</v>
       </c>
-    </row>
-    <row r="62" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA61" t="str">
+        <f t="shared" si="0"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -5762,8 +6008,12 @@
       <c r="Z62" s="1">
         <v>68</v>
       </c>
-    </row>
-    <row r="63" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA62" t="str">
+        <f t="shared" si="0"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -5842,8 +6092,12 @@
       <c r="Z63" s="1">
         <v>69</v>
       </c>
-    </row>
-    <row r="64" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA63" t="str">
+        <f t="shared" si="0"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -5922,8 +6176,12 @@
       <c r="Z64" s="1">
         <v>70</v>
       </c>
-    </row>
-    <row r="65" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA64" t="str">
+        <f t="shared" si="0"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -6002,8 +6260,12 @@
       <c r="Z65" s="1">
         <v>71</v>
       </c>
-    </row>
-    <row r="66" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA65" t="str">
+        <f t="shared" si="0"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -6082,8 +6344,12 @@
       <c r="Z66" s="1">
         <v>72</v>
       </c>
-    </row>
-    <row r="67" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA66" t="str">
+        <f t="shared" si="0"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -6162,8 +6428,12 @@
       <c r="Z67" s="1">
         <v>73</v>
       </c>
-    </row>
-    <row r="68" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA67" t="str">
+        <f t="shared" ref="AA67:AA80" si="1">IF(Y67=1,"a",IF(Y67=2,"b",IF(Y67=3,"c",IF(Y67=4,"d","e"))))</f>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -6242,8 +6512,12 @@
       <c r="Z68" s="1">
         <v>74</v>
       </c>
-    </row>
-    <row r="69" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA68" t="str">
+        <f t="shared" si="1"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -6322,8 +6596,12 @@
       <c r="Z69" s="1">
         <v>77</v>
       </c>
-    </row>
-    <row r="70" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA69" t="str">
+        <f t="shared" si="1"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -6402,8 +6680,12 @@
       <c r="Z70" s="1">
         <v>79</v>
       </c>
-    </row>
-    <row r="71" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA70" t="str">
+        <f t="shared" si="1"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -6482,8 +6764,12 @@
       <c r="Z71" s="1">
         <v>81</v>
       </c>
-    </row>
-    <row r="72" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA71" t="str">
+        <f t="shared" si="1"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -6562,8 +6848,12 @@
       <c r="Z72" s="1">
         <v>82</v>
       </c>
-    </row>
-    <row r="73" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA72" t="str">
+        <f t="shared" si="1"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -6642,8 +6932,12 @@
       <c r="Z73" s="1">
         <v>83</v>
       </c>
-    </row>
-    <row r="74" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA73" t="str">
+        <f t="shared" si="1"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -6722,8 +7016,12 @@
       <c r="Z74" s="1">
         <v>84</v>
       </c>
-    </row>
-    <row r="75" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA74" t="str">
+        <f t="shared" si="1"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -6802,8 +7100,12 @@
       <c r="Z75" s="1">
         <v>85</v>
       </c>
-    </row>
-    <row r="76" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA75" t="str">
+        <f t="shared" si="1"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -6882,8 +7184,12 @@
       <c r="Z76" s="1">
         <v>86</v>
       </c>
-    </row>
-    <row r="77" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA76" t="str">
+        <f t="shared" si="1"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -6962,8 +7268,12 @@
       <c r="Z77" s="1">
         <v>87</v>
       </c>
-    </row>
-    <row r="78" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA77" t="str">
+        <f t="shared" si="1"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -7042,8 +7352,12 @@
       <c r="Z78" s="1">
         <v>88</v>
       </c>
-    </row>
-    <row r="79" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA78" t="str">
+        <f t="shared" si="1"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -7122,8 +7436,12 @@
       <c r="Z79" s="1">
         <v>89</v>
       </c>
-    </row>
-    <row r="80" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA79" t="str">
+        <f t="shared" si="1"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -7201,6 +7519,10 @@
       </c>
       <c r="Z80" s="1">
         <v>90</v>
+      </c>
+      <c r="AA80" t="str">
+        <f t="shared" si="1"/>
+        <v>c</v>
       </c>
     </row>
   </sheetData>
